--- a/Dissertation_MSc_SoftwareEngineering_2025/Cargo/Decomposer/cargo_decomposer_result.xlsx
+++ b/Dissertation_MSc_SoftwareEngineering_2025/Cargo/Decomposer/cargo_decomposer_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Achilles/dissertation/24007552/Dissertation_MSc_SoftwareEngineering_2025/Cargo/Decomposer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CBDCEA-3839-3B4A-AB53-8DC207DD02E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6A5F10-8099-C34C-AB9D-F122376CCD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5860" yWindow="2140" windowWidth="28100" windowHeight="17360" xr2:uid="{068C92F6-B83B-FA48-9683-871414173B58}"/>
+    <workbookView xWindow="-33960" yWindow="1580" windowWidth="29340" windowHeight="13060" xr2:uid="{068C92F6-B83B-FA48-9683-871414173B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,19 +220,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,20 +239,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -604,7 +586,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -658,100 +640,100 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="42">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="42">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="42">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
